--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-7.51720489688974</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.097935604674429</v>
+        <v>-9.086951162590221</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.795533494764772</v>
+        <v>-1.719349384528768</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.915556642735306</v>
+        <v>-7.739164046548731</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.099841063655738</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.745821303100085</v>
+        <v>-9.743255211743106</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.795114541073837</v>
+        <v>-1.731643056897149</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.74446642919963</v>
+        <v>-7.602820804754995</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.630094926413728</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.31104220138308</v>
+        <v>-10.28573477999003</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.798989862714988</v>
+        <v>-1.7300588882533</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.556382406575393</v>
+        <v>-7.407954969258745</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.144228989511699</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.95501330125906</v>
+        <v>-10.93443220119187</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.792286603660024</v>
+        <v>-1.73157759538294</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.121377552356202</v>
+        <v>-6.98794080179333</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.653495345618399</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.58671691337235</v>
+        <v>-11.5461962360772</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.849028644176065</v>
+        <v>-1.7851251140056</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.869782768646753</v>
+        <v>-6.740090416696614</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.179578767985088</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.3805032346662</v>
+        <v>-12.3452063862049</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.637509399465138</v>
+        <v>-1.570660101155285</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.492894646741984</v>
+        <v>-6.363045187157746</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.734684500533356</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.02257595063013</v>
+        <v>-12.98527597983405</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.539395681969243</v>
+        <v>-1.476958489717052</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.843032010587228</v>
+        <v>-5.694342727213745</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.332660321549509</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.64067666009086</v>
+        <v>-13.59888602942007</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.435796289582665</v>
+        <v>-1.363867177770222</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.42761324141926</v>
+        <v>-5.303092349091603</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.981654567109004</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.28545948274302</v>
+        <v>-14.23196433333173</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.351075997893855</v>
+        <v>-1.288167482739362</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.038588554780211</v>
+        <v>-4.900726605856836</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.686970009354054</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.13348721471015</v>
+        <v>-15.07554068233267</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.228754612443609</v>
+        <v>-1.176385401076705</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.469845827032789</v>
+        <v>-4.336539999498334</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.449087732270117</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.91067249600069</v>
+        <v>-15.85433631687274</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9953712219869999</v>
+        <v>-0.9357488748457794</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.932105672414574</v>
+        <v>-3.815571084820371</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.264112397471739</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.68176985646983</v>
+        <v>-16.61874351058976</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9079931928213201</v>
+        <v>-0.8456607389918622</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.451735988848803</v>
+        <v>-3.347730735074131</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.131412002328867</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.40865451024246</v>
+        <v>-17.35041994720246</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7267826291889896</v>
+        <v>-0.6615174995229851</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.87350134154113</v>
+        <v>-2.770150702908544</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.045779935440466</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.18162407001797</v>
+        <v>-18.11446055643991</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5440271738213354</v>
+        <v>-0.4792464593604748</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.59255361486053</v>
+        <v>-2.488849484051218</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.00002535469079</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.05177779378761</v>
+        <v>-18.98174706588722</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3800722653343999</v>
+        <v>-0.317360134722532</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.033695575758611</v>
+        <v>-1.920787556051565</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.987202070455262</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.87263899735815</v>
+        <v>-19.81393311141585</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1302580348114247</v>
+        <v>-0.07602971644099536</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.75645297078222</v>
+        <v>-1.651138486723375</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.999983406786464</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.62857547113657</v>
+        <v>-20.55112140752492</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.009573187216393836</v>
+        <v>0.02878726010986354</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.316473041483173</v>
+        <v>-1.210202819316883</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.03082588748175</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.3545174791046</v>
+        <v>-21.26810828034921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2578501906287028</v>
+        <v>0.3060953266004634</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9373723203981534</v>
+        <v>-0.8266638075685178</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.073105296199134</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.99597485683497</v>
+        <v>-21.9099191502563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4095114267472576</v>
+        <v>0.4568793784286225</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6991316855872641</v>
+        <v>-0.5963702005825562</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.122108054090478</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.6138268125417</v>
+        <v>-22.52855664413354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.599087971895451</v>
+        <v>0.6434970631345859</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3646233479811631</v>
+        <v>-0.2534827891577505</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.17707069506176</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.06799879812118</v>
+        <v>-22.98151104554874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7727180921824222</v>
+        <v>0.8107643242404782</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2539541120600526</v>
+        <v>-0.139946338914302</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.23759516609826</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.51493074022918</v>
+        <v>-23.42452838910706</v>
       </c>
       <c r="F23" t="n">
-        <v>0.857464568476915</v>
+        <v>0.89125580211141</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1215516534216769</v>
+        <v>0.007538452597742135</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.302757739526852</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.9976046690951</v>
+        <v>-23.91729648346395</v>
       </c>
       <c r="F24" t="n">
-        <v>1.006795374689643</v>
+        <v>1.035323502581764</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1459164290101291</v>
+        <v>-0.04632328129311891</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.374964188884253</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.24782476100616</v>
+        <v>-24.16944114389275</v>
       </c>
       <c r="F25" t="n">
-        <v>1.063877815079568</v>
+        <v>1.090690851299423</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03391944282382017</v>
+        <v>0.1516323376737792</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.455653600483718</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.52141461348971</v>
+        <v>-24.4345602764377</v>
       </c>
       <c r="F26" t="n">
-        <v>1.202106348482512</v>
+        <v>1.227963646594921</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06932645738603162</v>
+        <v>0.04834716055540229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.545414539422054</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.56395150542248</v>
+        <v>-24.48715205695292</v>
       </c>
       <c r="F27" t="n">
-        <v>1.170331329485643</v>
+        <v>1.196699227408879</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2738413200766345</v>
+        <v>-0.1531957493901288</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.643587982425315</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.65081893477734</v>
+        <v>-24.56823268845173</v>
       </c>
       <c r="F28" t="n">
-        <v>1.09794398707374</v>
+        <v>1.124468992631076</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6351626939025905</v>
+        <v>-0.5100395556442145</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.749397717367623</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.46531409581292</v>
+        <v>-24.37718980538526</v>
       </c>
       <c r="F29" t="n">
-        <v>1.106990768337372</v>
+        <v>1.142680385883917</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6783018317660779</v>
+        <v>-0.5645166277686366</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.861781612118965</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.2048165461711</v>
+        <v>-24.1184989935356</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9899586732351828</v>
+        <v>1.029641443148455</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.000477220095273</v>
+        <v>-0.8819264178634435</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.978083302355452</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.98425052019654</v>
+        <v>-23.89314118472096</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9212109910132793</v>
+        <v>0.9620982527879898</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.20631440537289</v>
+        <v>-1.104351550841528</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.093885688547902</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.63463366511109</v>
+        <v>-23.54814591253864</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8971604306930284</v>
+        <v>0.936856292909142</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.456272651227124</v>
+        <v>-1.35057849038587</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.207229015124084</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.29792582062757</v>
+        <v>-23.21264255991657</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8571110763001885</v>
+        <v>0.9020831365615175</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.735963516834918</v>
+        <v>-1.633555524006937</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.314405946445143</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.85573329214828</v>
+        <v>-22.75746246701828</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7957212682753348</v>
+        <v>0.8348148845607289</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.963704124766743</v>
+        <v>-1.877753156610812</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.411528108514943</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.48701476721674</v>
+        <v>-22.40122090669491</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7080028392357702</v>
+        <v>0.754323406689797</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.22680704267407</v>
+        <v>-2.166922849476015</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.494255729920763</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.9176697935386</v>
+        <v>-21.82567018146979</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7545721604437898</v>
+        <v>0.8027387425985001</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.514719874466468</v>
+        <v>-2.473256551366722</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.56044680110838</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.47398474253535</v>
+        <v>-21.3750069330519</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7708458928760553</v>
+        <v>0.8217749509303698</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.696820714692036</v>
+        <v>-2.654912253295671</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.608956601729261</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98388747795817</v>
+        <v>-20.89279123478545</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8685668412866987</v>
+        <v>0.9169429002868765</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.829733773141239</v>
+        <v>-2.78536395881063</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.639095642611257</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.4913419527496</v>
+        <v>-20.39905431001827</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8863069116372375</v>
+        <v>0.9372490619943937</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.88229936905077</v>
+        <v>-2.849660258066346</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.651983626273233</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.83772182567926</v>
+        <v>-19.739555738972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9069665655214812</v>
+        <v>0.9554211783387094</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.998009141565944</v>
+        <v>-2.972871920109831</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.652785716224228</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.30791560658314</v>
+        <v>-19.20406746044257</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9761986629485288</v>
+        <v>1.027703782327879</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.149775116107233</v>
+        <v>-3.13041160020432</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.647431611600376</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.54467362781903</v>
+        <v>-18.44697886401407</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9550022246477743</v>
+        <v>1.002776037717233</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.362721421827907</v>
+        <v>-3.345793074253556</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.64305429139735</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.02798589617031</v>
+        <v>-17.92312964271093</v>
       </c>
       <c r="F43" t="n">
-        <v>1.057528048201331</v>
+        <v>1.1112981359723</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.40180194581046</v>
+        <v>-3.381037553503482</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.646365377347511</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.46451936646811</v>
+        <v>-17.36762323313649</v>
       </c>
       <c r="F44" t="n">
-        <v>1.016431309581153</v>
+        <v>1.057240017538813</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.554039243254051</v>
+        <v>-3.527160745519987</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.666963724003311</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.82298343492069</v>
+        <v>-16.71422567521447</v>
       </c>
       <c r="F45" t="n">
-        <v>1.031448180940613</v>
+        <v>1.078855409530503</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.724919979944259</v>
+        <v>-3.706970432748253</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.712103603094802</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.3496050410724</v>
+        <v>-16.23860849758024</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8725338090477417</v>
+        <v>0.9003025833750428</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.878859276757274</v>
+        <v>-3.870310003001627</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.785639658204195</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.74319575804933</v>
+        <v>-15.64586757872394</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9462827509551847</v>
+        <v>0.9792229849049675</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.863515097826771</v>
+        <v>-3.839818029683247</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.891007662721557</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.11124339218205</v>
+        <v>-14.99428985089691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9216168524013728</v>
+        <v>0.9634860368892127</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.01672122568065</v>
+        <v>-3.983126376588781</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.030014335310567</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.59738359794715</v>
+        <v>-14.49064205287855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8502638019139657</v>
+        <v>0.8800618831817342</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.114533820211185</v>
+        <v>-4.091609197935323</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.201013325980199</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.07088973146998</v>
+        <v>-13.97248798331156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8475929721342536</v>
+        <v>0.8722588706880655</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.201453618777404</v>
+        <v>-4.163747786593234</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.399721506461972</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.57957488272852</v>
+        <v>-13.49643875968356</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9525408717135297</v>
+        <v>0.9847741213098593</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.300758735831897</v>
+        <v>-4.255420091091</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.619554006335627</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.95753339011243</v>
+        <v>-12.85621205842032</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8518872474663397</v>
+        <v>0.8729789473443604</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.412004033078043</v>
+        <v>-4.359962129282182</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.85513820678969</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.54525677362648</v>
+        <v>-12.45761689840396</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8647962580682816</v>
+        <v>0.8852202505013743</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.605036946176452</v>
+        <v>-4.549054259225231</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.098582705794701</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.92871404820391</v>
+        <v>-11.82430293304115</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8384152678422037</v>
+        <v>0.8632382740301162</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.778392128103747</v>
+        <v>-4.732765452700332</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.338674809665183</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.54086766882062</v>
+        <v>-11.44372278173501</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7936264998206587</v>
+        <v>0.825296780394794</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.000031722911328</v>
+        <v>-4.950110772175826</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.568531832495265</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.14863536798535</v>
+        <v>-11.0627105844351</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7193276811938633</v>
+        <v>0.7483271319882865</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.206170031154305</v>
+        <v>-5.149873128934883</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.781070587095319</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.59269691241714</v>
+        <v>-10.50572474463955</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6991000733033965</v>
+        <v>0.7300895541297621</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.2860854477002</v>
+        <v>-5.230508622137074</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.969935693831257</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.34825052605927</v>
+        <v>-10.27338873841028</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6158984887442274</v>
+        <v>0.6444135243335067</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.427508502996526</v>
+        <v>-5.372049508158974</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.129527001203523</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.840740498702599</v>
+        <v>-9.767109387520732</v>
       </c>
       <c r="F59" t="n">
-        <v>0.646023877583039</v>
+        <v>0.673216590585304</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.643361299948063</v>
+        <v>-5.586854920883174</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.256457825334604</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.692692738168361</v>
+        <v>-9.638254942952464</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6357856967608092</v>
+        <v>0.6553848741148731</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.696974280084932</v>
+        <v>-5.644578884112344</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.350568969094045</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.309310834054097</v>
+        <v>-9.26344849719953</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6717764372727142</v>
+        <v>0.6879716158879293</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.7137193354195</v>
+        <v>-5.653848234524286</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.411618747768089</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.02664801570123</v>
+        <v>-8.990958398154685</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6357595121551258</v>
+        <v>0.6486685227570677</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.814255128941114</v>
+        <v>-5.736486850061261</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.438579880114175</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.716242607626747</v>
+        <v>-8.661464412536965</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5974514340402354</v>
+        <v>0.6087631836954867</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.796266304836582</v>
+        <v>-5.72973122179493</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.436511552674231</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.407067876019386</v>
+        <v>-8.352616988500648</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4937603955337649</v>
+        <v>0.5045746376810306</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.723067239648492</v>
+        <v>-5.656741633452308</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.409651976603907</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.289721565648996</v>
+        <v>-8.243479552012019</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3631646746875473</v>
+        <v>0.364133505097835</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.750849106278634</v>
+        <v>-5.675280334276191</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.363042126177936</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.091949238921881</v>
+        <v>-8.043455349196128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3138066929742401</v>
+        <v>0.320117182943952</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.741082248358707</v>
+        <v>-5.657959217616588</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.300992318469934</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.955592904825305</v>
+        <v>-7.915137689044371</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2216892501798554</v>
+        <v>0.2248444951647114</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.69582215743486</v>
+        <v>-5.610119943032921</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.230602662364829</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.817259632999627</v>
+        <v>-7.768084943526103</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1648555635439226</v>
+        <v>0.1702757769203972</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.642379377234934</v>
+        <v>-5.556624793621628</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.15841736143455</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.754966456078694</v>
+        <v>-7.697242492849524</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1551148902296784</v>
+        <v>0.1651828711149657</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.553390994819722</v>
+        <v>-5.46728291902969</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.088343687113972</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.763685929771284</v>
+        <v>-7.704901490011934</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04757471468774045</v>
+        <v>0.05853297216626517</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.449032248868323</v>
+        <v>-5.369496509104837</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.02222662114791</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.82578272214959</v>
+        <v>-7.779684723843873</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0471950379053304</v>
+        <v>0.06125617115734419</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.276933928013834</v>
+        <v>-5.202085232667686</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.96438005785919</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.845159330355345</v>
+        <v>-7.78755319785175</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.02519230450657304</v>
+        <v>-0.01321284740639368</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.192344559353442</v>
+        <v>-5.122051985396215</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.916690285639085</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.055133683330947</v>
+        <v>-8.003824948494223</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0633956441987297</v>
+        <v>-0.04782889611991741</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.924083274126475</v>
+        <v>-4.853633592535147</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.881028599590126</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.183385881968496</v>
+        <v>-8.131186870538535</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1092448887504544</v>
+        <v>-0.1072941356270372</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.787635293910006</v>
+        <v>-4.720655072571735</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.856206971784666</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.522214679512366</v>
+        <v>-8.47687603477147</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2020955005039757</v>
+        <v>-0.185206429838149</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.539392139728038</v>
+        <v>-4.478971162113472</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.846887230876831</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.784767720700341</v>
+        <v>-8.734899139176207</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1882045671889043</v>
+        <v>-0.1787912014457033</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.234053452853303</v>
+        <v>-4.194462329059923</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.854257762838109</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.302385005850823</v>
+        <v>-9.253773285399495</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.26220226285034</v>
+        <v>-0.2481411295983262</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.024589699688527</v>
+        <v>-3.968358258983314</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.877027960779932</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.754580053701201</v>
+        <v>-9.707709609527821</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2148081265632917</v>
+        <v>-0.1935331344454868</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.933205425853279</v>
+        <v>-3.880338706978389</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.915845813511594</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.19010860003406</v>
+        <v>-10.15218019870158</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2812384711822097</v>
+        <v>-0.2621498936389731</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.785052926896307</v>
+        <v>-3.734752299378396</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.971723674195577</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.79495989901896</v>
+        <v>-10.74700279370972</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3395384957364159</v>
+        <v>-0.3144536434916688</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.456344479449091</v>
+        <v>-3.405912928902762</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.044944849539966</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.48123222937656</v>
+        <v>-11.4264933111953</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3564406587050843</v>
+        <v>-0.3299680223591142</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.294772370079349</v>
+        <v>-3.244301542624495</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.135516355596245</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.32270071761998</v>
+        <v>-12.27323799748394</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4223211266046499</v>
+        <v>-0.3935180603528525</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.954464142314364</v>
+        <v>-2.90642848318807</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.241222901042938</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.24278848442796</v>
+        <v>-13.19086441135767</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4043977640143269</v>
+        <v>-0.3697293460894363</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.811888964367967</v>
+        <v>-2.76442936656671</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.365438951162125</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.20344929774245</v>
+        <v>-14.13606321501609</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4564265755073463</v>
+        <v>-0.4257774945548655</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.53642691257805</v>
+        <v>-2.486584515659599</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.507305186527123</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.42248670763841</v>
+        <v>-15.36078268434535</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5152110152666963</v>
+        <v>-0.473551307624324</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.335826648437124</v>
+        <v>-2.286665051266442</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.661240528896318</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.48601374438034</v>
+        <v>-16.42605099736524</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6112561489135988</v>
+        <v>-0.569138210671766</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.104367826498248</v>
+        <v>-2.042873280050661</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.826983043053463</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.66830106019957</v>
+        <v>-17.59514127192001</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5401518521801845</v>
+        <v>-0.500652374506697</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.036353313235481</v>
+        <v>-1.983394948240699</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.002804881509986</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.04572914987473</v>
+        <v>-18.97317160752588</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6952956408546384</v>
+        <v>-0.6550499019191725</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.009592646226993</v>
+        <v>-1.95381943612124</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.186876682653663</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.59001863926769</v>
+        <v>-20.50440807098564</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.675958309557409</v>
+        <v>-0.6387892617897487</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.996578897202318</v>
+        <v>-1.940884240913615</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.376793544761249</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.22888692438927</v>
+        <v>-22.13909991150071</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7178274940452489</v>
+        <v>-0.6726983261498192</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.013402506353935</v>
+        <v>-1.953033897950737</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.571277486618841</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.93964504441477</v>
+        <v>-23.85108870799334</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8543933049872936</v>
+        <v>-0.8190571796174749</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.054538521882639</v>
+        <v>-1.996186128117066</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.771999332443659</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.67538327826229</v>
+        <v>-25.58606758827604</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.904798670927939</v>
+        <v>-0.8659014391851708</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.12523695722796</v>
+        <v>-2.057143890148142</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.978787589855459</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.70091963551141</v>
+        <v>-27.60414133290538</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.079515452350773</v>
+        <v>-1.040133805402861</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.312561626287376</v>
+        <v>-2.25214064867281</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.186692292658307</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.74805829244939</v>
+        <v>-29.65842838719493</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.107834103397427</v>
+        <v>-1.06667190326304</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.371202050715467</v>
+        <v>-2.31820440881216</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.398898639385113</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.95667741263721</v>
+        <v>-31.85847204902142</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.351350936253532</v>
+        <v>-1.297881971447922</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.584174541041825</v>
+        <v>-2.530483007087907</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.615079859928887</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.21343693037406</v>
+        <v>-34.12058631862053</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.476068213123814</v>
+        <v>-1.428660984533924</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.802331583293507</v>
+        <v>-2.74979217198966</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.832979548077502</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.42697875643037</v>
+        <v>-36.33563375950364</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.642353551516577</v>
+        <v>-1.607357826020643</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.894200272333899</v>
+        <v>-2.829877788472498</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.04930259755516</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.76424284434098</v>
+        <v>-38.67255744754038</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.911727682485091</v>
+        <v>-1.878407771752898</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.15248522279547</v>
+        <v>-3.093556767704861</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.25858950227421</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.06609225306474</v>
+        <v>-40.98175163815834</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.923838062613688</v>
+        <v>-1.8952575655102</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.379440292556792</v>
+        <v>-3.348516273244635</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.45844756998324</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.39992615763083</v>
+        <v>-43.31144837502644</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.256893154604357</v>
+        <v>-2.233654317060293</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.456043356483731</v>
+        <v>-3.396355547828302</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.63576900685156</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.73797578371195</v>
+        <v>-45.6540279378908</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.296353355369319</v>
+        <v>-2.272054041295076</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.710282785367209</v>
+        <v>-3.661985280184082</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.78442059877012</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.26522227815886</v>
+        <v>-48.19517845795563</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.553486183180819</v>
+        <v>-2.542959971696071</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.746718664175733</v>
+        <v>-3.687345070788505</v>
       </c>
     </row>
   </sheetData>
